--- a/writer-bill.xlsx
+++ b/writer-bill.xlsx
@@ -496,7 +496,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -568,11 +568,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="2"/>
@@ -596,6 +605,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="3">
       <alignment textRotation="0" horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,7 +1058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:6" ht="15">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1061,20 +1071,22 @@
       <c r="F14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>2</v>
+    </row>
+    <row r="15" spans="1:11" ht="15">
+      <c r="G15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15">
@@ -2008,7 +2020,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="79">
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B13:E13"/>
@@ -2016,7 +2028,6 @@
     <mergeCell ref="F11:K11"/>
     <mergeCell ref="F12:K12"/>
     <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="I16:M16"/>
     <mergeCell ref="B17:H17"/>
@@ -2249,7 +2260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:6" ht="15">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -2262,20 +2273,22 @@
       <c r="F14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>2</v>
+    </row>
+    <row r="15" spans="1:11" ht="15">
+      <c r="G15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15">
@@ -3209,7 +3222,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="79">
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B13:E13"/>
@@ -3217,7 +3230,6 @@
     <mergeCell ref="F11:K11"/>
     <mergeCell ref="F12:K12"/>
     <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="I16:M16"/>
     <mergeCell ref="B17:H17"/>
@@ -3455,7 +3467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:6" ht="15">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -3468,20 +3480,22 @@
       <c r="F14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>2</v>
+    </row>
+    <row r="15" spans="1:11" ht="15">
+      <c r="G15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15">
@@ -4415,7 +4429,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="79">
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B13:E13"/>
@@ -4423,7 +4437,6 @@
     <mergeCell ref="F11:K11"/>
     <mergeCell ref="F12:K12"/>
     <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="I16:M16"/>
     <mergeCell ref="B17:H17"/>
@@ -4661,7 +4674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:6" ht="15">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -4674,20 +4687,22 @@
       <c r="F14" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>2</v>
+    </row>
+    <row r="15" spans="1:11" ht="15">
+      <c r="G15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15">
@@ -5621,7 +5636,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="79">
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B13:E13"/>
@@ -5629,7 +5644,6 @@
     <mergeCell ref="F11:K11"/>
     <mergeCell ref="F12:K12"/>
     <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="I16:M16"/>
     <mergeCell ref="B17:H17"/>
@@ -5843,7 +5857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:4" ht="15">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -5853,20 +5867,22 @@
       <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>2</v>
+    </row>
+    <row r="15" spans="1:11" ht="15">
+      <c r="G15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15">
@@ -6800,7 +6816,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="79">
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B13:E13"/>
@@ -6808,7 +6824,6 @@
     <mergeCell ref="F11:K11"/>
     <mergeCell ref="F12:K12"/>
     <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="I16:M16"/>
     <mergeCell ref="B17:H17"/>
@@ -7046,7 +7061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:6" ht="15">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -7059,20 +7074,22 @@
       <c r="F14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>2</v>
+    </row>
+    <row r="15" spans="1:11" ht="15">
+      <c r="G15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15">
@@ -8006,7 +8023,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="79">
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B13:E13"/>
@@ -8014,7 +8031,6 @@
     <mergeCell ref="F11:K11"/>
     <mergeCell ref="F12:K12"/>
     <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="I16:M16"/>
     <mergeCell ref="B17:H17"/>
@@ -8252,7 +8268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:6" ht="15">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -8265,20 +8281,22 @@
       <c r="F14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>2</v>
+    </row>
+    <row r="15" spans="1:11" ht="15">
+      <c r="G15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15">
@@ -9212,7 +9230,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="79">
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B13:E13"/>
@@ -9220,7 +9238,6 @@
     <mergeCell ref="F11:K11"/>
     <mergeCell ref="F12:K12"/>
     <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="I16:M16"/>
     <mergeCell ref="B17:H17"/>
@@ -9458,7 +9475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:6" ht="15">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -9471,20 +9488,22 @@
       <c r="F14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>2</v>
+    </row>
+    <row r="15" spans="1:11" ht="15">
+      <c r="G15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15">
@@ -10418,7 +10437,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="79">
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B13:E13"/>
@@ -10426,7 +10445,6 @@
     <mergeCell ref="F11:K11"/>
     <mergeCell ref="F12:K12"/>
     <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="I16:M16"/>
     <mergeCell ref="B17:H17"/>
@@ -10664,7 +10682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:6" ht="15">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -10677,20 +10695,22 @@
       <c r="F14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>2</v>
+    </row>
+    <row r="15" spans="1:11" ht="15">
+      <c r="G15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15">
@@ -11624,7 +11644,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="79">
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B13:E13"/>
@@ -11632,7 +11652,6 @@
     <mergeCell ref="F11:K11"/>
     <mergeCell ref="F12:K12"/>
     <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="I16:M16"/>
     <mergeCell ref="B17:H17"/>
@@ -11865,7 +11884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:6" ht="15">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -11878,20 +11897,22 @@
       <c r="F14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>2</v>
+    </row>
+    <row r="15" spans="1:11" ht="15">
+      <c r="G15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15">
@@ -12825,7 +12846,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="79">
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B13:E13"/>
@@ -12833,7 +12854,6 @@
     <mergeCell ref="F11:K11"/>
     <mergeCell ref="F12:K12"/>
     <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="I16:M16"/>
     <mergeCell ref="B17:H17"/>
@@ -13071,7 +13091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:6" ht="15">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -13084,20 +13104,22 @@
       <c r="F14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>2</v>
+    </row>
+    <row r="15" spans="1:11" ht="15">
+      <c r="G15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15">
@@ -14031,7 +14053,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="79">
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B13:E13"/>
@@ -14039,7 +14061,6 @@
     <mergeCell ref="F11:K11"/>
     <mergeCell ref="F12:K12"/>
     <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="I16:M16"/>
     <mergeCell ref="B17:H17"/>
@@ -14277,7 +14298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:6" ht="15">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -14290,20 +14311,22 @@
       <c r="F14" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>2</v>
+    </row>
+    <row r="15" spans="1:11" ht="15">
+      <c r="G15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15">
@@ -15237,7 +15260,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="79">
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B13:E13"/>
@@ -15245,7 +15268,6 @@
     <mergeCell ref="F11:K11"/>
     <mergeCell ref="F12:K12"/>
     <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="I16:M16"/>
     <mergeCell ref="B17:H17"/>
